--- a/R&D/SWIT.xlsx
+++ b/R&D/SWIT.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
